--- a/LF/TAS/Senegal/sn_lf_tas_3_fts_result_202101.xlsx
+++ b/LF/TAS/Senegal/sn_lf_tas_3_fts_result_202101.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E1D205-8849-48CA-BE82-3EB657A675F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413DEBF1-4C81-4DCD-AF63-49C982D2B50D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="328">
   <si>
     <t>form_title</t>
   </si>
@@ -511,12 +511,6 @@
     <t>select_one code_site_list</t>
   </si>
   <si>
-    <t>sn_lf_tas_3_fts_result_202101</t>
-  </si>
-  <si>
-    <t>(Janvier 2021) 3. TAS FL Résultat FTS V2</t>
-  </si>
-  <si>
     <t>Tamba</t>
   </si>
   <si>
@@ -902,6 +896,135 @@
   </si>
   <si>
     <t>commune_list = ${d_commune}</t>
+  </si>
+  <si>
+    <t>(Janvier 2021) 3. TAS FL Résultat FTS V2.1</t>
+  </si>
+  <si>
+    <t>sn_lf_tas_3_fts_result_202101_v2</t>
+  </si>
+  <si>
+    <t>Toumboura</t>
+  </si>
+  <si>
+    <t>BELE</t>
+  </si>
+  <si>
+    <t>DAHARATOU</t>
+  </si>
+  <si>
+    <t>FETE GOLOMBI</t>
+  </si>
+  <si>
+    <t>GOUREL BOCAR SAMBA</t>
+  </si>
+  <si>
+    <t>GUITTA</t>
+  </si>
+  <si>
+    <t>NAYES</t>
+  </si>
+  <si>
+    <t>SELING</t>
+  </si>
+  <si>
+    <t>SENOUDEBOU</t>
+  </si>
+  <si>
+    <t>WOUBOWOL</t>
+  </si>
+  <si>
+    <t>SABOU CIRE</t>
+  </si>
+  <si>
+    <t>TAME</t>
+  </si>
+  <si>
+    <t>ALAHINA BOCAR</t>
+  </si>
+  <si>
+    <t>SINTHIOU DIOYE</t>
+  </si>
+  <si>
+    <t>MADINA FOULBE</t>
+  </si>
+  <si>
+    <t>DYALA BAKARY</t>
+  </si>
+  <si>
+    <t>HEREMAKONO</t>
+  </si>
+  <si>
+    <t>SANDINCOUNDA</t>
+  </si>
+  <si>
+    <t>SENO KARE</t>
+  </si>
+  <si>
+    <t>DIAM WELY PATHE MBAYE</t>
+  </si>
+  <si>
+    <t>GUEDEKHO</t>
+  </si>
+  <si>
+    <t>KOUNDEL</t>
+  </si>
+  <si>
+    <t>SAMBA COLO</t>
+  </si>
+  <si>
+    <t>SINTHIOU SAMBA NDIARDE</t>
+  </si>
+  <si>
+    <t>SITABANTA</t>
+  </si>
+  <si>
+    <t>TAKHOUTALA</t>
+  </si>
+  <si>
+    <t>YOUPE HAMADY</t>
+  </si>
+  <si>
+    <t>BANCOUBA</t>
+  </si>
+  <si>
+    <t>DIDE GASSAMA</t>
+  </si>
+  <si>
+    <t>GOUDANPHA</t>
+  </si>
+  <si>
+    <t>TOUMBOURA</t>
+  </si>
+  <si>
+    <t>Elhadji Fonsa Ly</t>
+  </si>
+  <si>
+    <t>Lougué Nialby</t>
+  </si>
+  <si>
+    <t>Bountounco</t>
+  </si>
+  <si>
+    <t>Médina Diakha Ouly</t>
+  </si>
+  <si>
+    <t>Saré Thilal</t>
+  </si>
+  <si>
+    <t>Sinthiou Souka</t>
+  </si>
+  <si>
+    <t>Sare Boure</t>
+  </si>
+  <si>
+    <t>Village 8</t>
+  </si>
+  <si>
+    <t>Paddah Peulh</t>
+  </si>
+  <si>
+    <t>Jean Paul 2</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1545,14 +1668,14 @@
         <v>151</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
@@ -1570,17 +1693,17 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
@@ -1595,7 +1718,7 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1606,11 +1729,11 @@
         <v>153</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
@@ -1625,7 +1748,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1636,26 +1759,26 @@
         <v>133</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>282</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="15"/>
@@ -2278,11 +2401,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:G294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>149</v>
@@ -2545,27 +2668,27 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
         <v>147</v>
@@ -2573,16 +2696,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" t="s">
-        <v>161</v>
-      </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
         <v>147</v>
@@ -2590,16 +2713,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
         <v>147</v>
@@ -2607,16 +2730,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
         <v>147</v>
@@ -2624,16 +2747,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E23" t="s">
         <v>147</v>
@@ -2641,50 +2764,50 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
         <v>148</v>
@@ -2692,16 +2815,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
         <v>148</v>
@@ -2709,16 +2832,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
         <v>148</v>
@@ -2726,16 +2849,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
         <v>148</v>
@@ -2743,16 +2866,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
         <v>148</v>
@@ -2760,16 +2883,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
         <v>148</v>
@@ -2777,16 +2900,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
         <v>148</v>
@@ -2794,16 +2917,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s">
         <v>148</v>
@@ -2811,189 +2934,189 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" t="s">
-        <v>160</v>
+        <v>180</v>
+      </c>
+      <c r="E43" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" t="s">
-        <v>160</v>
+        <v>181</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,16 +3124,16 @@
         <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,16 +3141,16 @@
         <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,16 +3158,16 @@
         <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,16 +3175,16 @@
         <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3069,16 +3192,16 @@
         <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3086,16 +3209,16 @@
         <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3103,16 +3226,16 @@
         <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3120,16 +3243,16 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="D52" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3137,16 +3260,16 @@
         <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,16 +3277,16 @@
         <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3171,16 +3294,16 @@
         <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="F55" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,16 +3311,16 @@
         <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,16 +3328,16 @@
         <v>149</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C57" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D57" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F57" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3222,16 +3345,16 @@
         <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,16 +3362,16 @@
         <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="F59" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3256,16 +3379,16 @@
         <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="D60" t="s">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="F60" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,16 +3396,16 @@
         <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3290,16 +3413,16 @@
         <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,16 +3430,16 @@
         <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="F63" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3324,16 +3447,16 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F64" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3341,16 +3464,16 @@
         <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="F65" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,16 +3481,16 @@
         <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,16 +3498,16 @@
         <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F67" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3392,16 +3515,16 @@
         <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="F68" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,16 +3532,16 @@
         <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="F69" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,16 +3549,16 @@
         <v>149</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D70" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F70" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,16 +3566,16 @@
         <v>149</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="F71" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,16 +3583,16 @@
         <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="D72" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="F72" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3477,16 +3600,16 @@
         <v>149</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="F73" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,16 +3617,16 @@
         <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F74" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,16 +3634,16 @@
         <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="F75" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3528,16 +3651,16 @@
         <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="F76" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,16 +3668,16 @@
         <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="F77" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,16 +3685,16 @@
         <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="F78" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,16 +3702,16 @@
         <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="D79" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="F79" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3596,16 +3719,16 @@
         <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="F80" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,16 +3736,16 @@
         <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="C81" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="F81" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3630,16 +3753,16 @@
         <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="D82" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="F82" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,16 +3770,16 @@
         <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="D83" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="F83" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,16 +3787,16 @@
         <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="C84" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="D84" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="F84" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3681,16 +3804,16 @@
         <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="F85" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3698,16 +3821,16 @@
         <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="D86" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3715,16 +3838,16 @@
         <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C87" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="F87" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3732,16 +3855,16 @@
         <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="D88" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3749,16 +3872,16 @@
         <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3766,16 +3889,16 @@
         <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="F90" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3783,16 +3906,16 @@
         <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D91" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="F91" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3800,16 +3923,16 @@
         <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="F92" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3817,16 +3940,16 @@
         <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="F93" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3834,16 +3957,16 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="D94" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3851,16 +3974,16 @@
         <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C95" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3868,16 +3991,16 @@
         <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,16 +4008,16 @@
         <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="D97" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3902,16 +4025,16 @@
         <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,16 +4042,16 @@
         <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="F99" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3936,16 +4059,16 @@
         <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="D100" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="F100" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3953,16 +4076,16 @@
         <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="F101" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3970,16 +4093,16 @@
         <v>149</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="D102" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="F102" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,16 +4110,16 @@
         <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C103" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D103" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F103" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,16 +4127,16 @@
         <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C104" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D104" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="F104" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4021,16 +4144,16 @@
         <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D105" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F105" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4038,16 +4161,16 @@
         <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="D106" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="F106" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,16 +4178,16 @@
         <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="D107" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="F107" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4072,16 +4195,16 @@
         <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="F108" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,16 +4212,16 @@
         <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D109" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="F109" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4106,16 +4229,16 @@
         <v>149</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C110" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4123,16 +4246,16 @@
         <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4140,985 +4263,985 @@
         <v>149</v>
       </c>
       <c r="B112" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" t="s">
+        <v>219</v>
+      </c>
+      <c r="F112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" t="s">
+        <v>221</v>
+      </c>
+      <c r="D114" t="s">
+        <v>221</v>
+      </c>
+      <c r="F114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" t="s">
+        <v>223</v>
+      </c>
+      <c r="D116" t="s">
+        <v>223</v>
+      </c>
+      <c r="F116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" t="s">
+        <v>224</v>
+      </c>
+      <c r="D117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" t="s">
+        <v>225</v>
+      </c>
+      <c r="D118" t="s">
+        <v>225</v>
+      </c>
+      <c r="F118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" t="s">
+        <v>226</v>
+      </c>
+      <c r="C119" t="s">
+        <v>226</v>
+      </c>
+      <c r="D119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" t="s">
+        <v>227</v>
+      </c>
+      <c r="D120" t="s">
+        <v>227</v>
+      </c>
+      <c r="F120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" t="s">
+        <v>228</v>
+      </c>
+      <c r="C121" t="s">
+        <v>228</v>
+      </c>
+      <c r="D121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" t="s">
+        <v>229</v>
+      </c>
+      <c r="D122" t="s">
+        <v>229</v>
+      </c>
+      <c r="F122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" t="s">
+        <v>230</v>
+      </c>
+      <c r="D123" t="s">
+        <v>230</v>
+      </c>
+      <c r="F123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" t="s">
+        <v>231</v>
+      </c>
+      <c r="F124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>149</v>
+      </c>
+      <c r="B125" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" t="s">
+        <v>232</v>
+      </c>
+      <c r="D125" t="s">
+        <v>232</v>
+      </c>
+      <c r="F125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" t="s">
+        <v>233</v>
+      </c>
+      <c r="C126" t="s">
+        <v>233</v>
+      </c>
+      <c r="D126" t="s">
+        <v>233</v>
+      </c>
+      <c r="F126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C127" t="s">
+        <v>234</v>
+      </c>
+      <c r="D127" t="s">
+        <v>234</v>
+      </c>
+      <c r="F127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" t="s">
+        <v>235</v>
+      </c>
+      <c r="C128" t="s">
+        <v>235</v>
+      </c>
+      <c r="D128" t="s">
+        <v>235</v>
+      </c>
+      <c r="F128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" t="s">
+        <v>236</v>
+      </c>
+      <c r="C129" t="s">
+        <v>236</v>
+      </c>
+      <c r="D129" t="s">
+        <v>236</v>
+      </c>
+      <c r="F129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" t="s">
+        <v>237</v>
+      </c>
+      <c r="D130" t="s">
+        <v>237</v>
+      </c>
+      <c r="F130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" t="s">
+        <v>238</v>
+      </c>
+      <c r="D131" t="s">
+        <v>238</v>
+      </c>
+      <c r="F131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" t="s">
+        <v>239</v>
+      </c>
+      <c r="C132" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" t="s">
+        <v>239</v>
+      </c>
+      <c r="F132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" t="s">
+        <v>240</v>
+      </c>
+      <c r="C133" t="s">
+        <v>240</v>
+      </c>
+      <c r="D133" t="s">
+        <v>240</v>
+      </c>
+      <c r="F133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" t="s">
+        <v>241</v>
+      </c>
+      <c r="D134" t="s">
+        <v>241</v>
+      </c>
+      <c r="F134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
+        <v>318</v>
+      </c>
+      <c r="C135" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" t="s">
+        <v>318</v>
+      </c>
+      <c r="F135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
+        <v>242</v>
+      </c>
+      <c r="C136" t="s">
+        <v>242</v>
+      </c>
+      <c r="D136" t="s">
+        <v>242</v>
+      </c>
+      <c r="F136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" t="s">
+        <v>243</v>
+      </c>
+      <c r="D137" t="s">
+        <v>243</v>
+      </c>
+      <c r="F137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="s">
+        <v>244</v>
+      </c>
+      <c r="C138" t="s">
+        <v>244</v>
+      </c>
+      <c r="D138" t="s">
+        <v>244</v>
+      </c>
+      <c r="F138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" t="s">
+        <v>245</v>
+      </c>
+      <c r="D139" t="s">
+        <v>245</v>
+      </c>
+      <c r="F139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" t="s">
+        <v>319</v>
+      </c>
+      <c r="C140" t="s">
+        <v>319</v>
+      </c>
+      <c r="D140" t="s">
+        <v>319</v>
+      </c>
+      <c r="F140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>246</v>
+      </c>
+      <c r="C141" t="s">
+        <v>246</v>
+      </c>
+      <c r="D141" t="s">
+        <v>246</v>
+      </c>
+      <c r="F141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>247</v>
+      </c>
+      <c r="C142" t="s">
+        <v>247</v>
+      </c>
+      <c r="D142" t="s">
+        <v>247</v>
+      </c>
+      <c r="F142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>248</v>
+      </c>
+      <c r="C143" t="s">
+        <v>248</v>
+      </c>
+      <c r="D143" t="s">
+        <v>248</v>
+      </c>
+      <c r="F143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" t="s">
+        <v>320</v>
+      </c>
+      <c r="D144" t="s">
+        <v>320</v>
+      </c>
+      <c r="F144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>249</v>
+      </c>
+      <c r="C145" t="s">
+        <v>249</v>
+      </c>
+      <c r="D145" t="s">
+        <v>249</v>
+      </c>
+      <c r="F145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>321</v>
+      </c>
+      <c r="C146" t="s">
+        <v>321</v>
+      </c>
+      <c r="D146" t="s">
+        <v>321</v>
+      </c>
+      <c r="F146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>250</v>
+      </c>
+      <c r="C147" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147" t="s">
+        <v>250</v>
+      </c>
+      <c r="F147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>322</v>
+      </c>
+      <c r="C148" t="s">
+        <v>322</v>
+      </c>
+      <c r="D148" t="s">
+        <v>322</v>
+      </c>
+      <c r="F148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>323</v>
+      </c>
+      <c r="C149" t="s">
+        <v>323</v>
+      </c>
+      <c r="D149" t="s">
+        <v>323</v>
+      </c>
+      <c r="F149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150" t="s">
+        <v>251</v>
+      </c>
+      <c r="D150" t="s">
+        <v>251</v>
+      </c>
+      <c r="F150" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>252</v>
+      </c>
+      <c r="C151" t="s">
+        <v>252</v>
+      </c>
+      <c r="D151" t="s">
+        <v>252</v>
+      </c>
+      <c r="F151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
         <v>253</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C152" t="s">
         <v>253</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D152" t="s">
         <v>253</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F152" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>324</v>
+      </c>
+      <c r="C153" t="s">
+        <v>324</v>
+      </c>
+      <c r="D153" t="s">
+        <v>324</v>
+      </c>
+      <c r="F153" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>254</v>
+      </c>
+      <c r="C154" t="s">
+        <v>254</v>
+      </c>
+      <c r="D154" t="s">
+        <v>254</v>
+      </c>
+      <c r="F154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155" t="s">
+        <v>255</v>
+      </c>
+      <c r="C155" t="s">
+        <v>255</v>
+      </c>
+      <c r="D155" t="s">
+        <v>255</v>
+      </c>
+      <c r="F155" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" t="s">
+        <v>256</v>
+      </c>
+      <c r="C156" t="s">
+        <v>256</v>
+      </c>
+      <c r="D156" t="s">
+        <v>256</v>
+      </c>
+      <c r="F156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>149</v>
+      </c>
+      <c r="B157" t="s">
+        <v>257</v>
+      </c>
+      <c r="C157" t="s">
+        <v>257</v>
+      </c>
+      <c r="D157" t="s">
+        <v>257</v>
+      </c>
+      <c r="F157" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>149</v>
+      </c>
+      <c r="B158" t="s">
+        <v>258</v>
+      </c>
+      <c r="C158" t="s">
+        <v>258</v>
+      </c>
+      <c r="D158" t="s">
+        <v>258</v>
+      </c>
+      <c r="F158" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" t="s">
+        <v>325</v>
+      </c>
+      <c r="C159" t="s">
+        <v>325</v>
+      </c>
+      <c r="D159" t="s">
+        <v>325</v>
+      </c>
+      <c r="F159" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" t="s">
+        <v>326</v>
+      </c>
+      <c r="C160" t="s">
+        <v>326</v>
+      </c>
+      <c r="D160" t="s">
+        <v>326</v>
+      </c>
+      <c r="F160" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>149</v>
-      </c>
-      <c r="B113" t="s">
-        <v>254</v>
-      </c>
-      <c r="C113" t="s">
-        <v>254</v>
-      </c>
-      <c r="D113" t="s">
-        <v>254</v>
-      </c>
-      <c r="F113" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>149</v>
-      </c>
-      <c r="B114" t="s">
-        <v>255</v>
-      </c>
-      <c r="C114" t="s">
-        <v>255</v>
-      </c>
-      <c r="D114" t="s">
-        <v>255</v>
-      </c>
-      <c r="F114" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>149</v>
-      </c>
-      <c r="B115" t="s">
-        <v>256</v>
-      </c>
-      <c r="C115" t="s">
-        <v>256</v>
-      </c>
-      <c r="D115" t="s">
-        <v>256</v>
-      </c>
-      <c r="F115" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>149</v>
-      </c>
-      <c r="B116" t="s">
-        <v>257</v>
-      </c>
-      <c r="C116" t="s">
-        <v>257</v>
-      </c>
-      <c r="D116" t="s">
-        <v>257</v>
-      </c>
-      <c r="F116" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>149</v>
-      </c>
-      <c r="B117" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" t="s">
-        <v>258</v>
-      </c>
-      <c r="D117" t="s">
-        <v>258</v>
-      </c>
-      <c r="F117" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>149</v>
-      </c>
-      <c r="B118" t="s">
-        <v>259</v>
-      </c>
-      <c r="C118" t="s">
-        <v>259</v>
-      </c>
-      <c r="D118" t="s">
-        <v>259</v>
-      </c>
-      <c r="F118" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>149</v>
-      </c>
-      <c r="B119" t="s">
-        <v>260</v>
-      </c>
-      <c r="C119" t="s">
-        <v>260</v>
-      </c>
-      <c r="D119" t="s">
-        <v>260</v>
-      </c>
-      <c r="F119" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>149</v>
-      </c>
-      <c r="B120" t="s">
-        <v>261</v>
-      </c>
-      <c r="C120" t="s">
-        <v>261</v>
-      </c>
-      <c r="D120" t="s">
-        <v>261</v>
-      </c>
-      <c r="F120" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>149</v>
-      </c>
-      <c r="B121" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" t="s">
-        <v>262</v>
-      </c>
-      <c r="D121" t="s">
-        <v>262</v>
-      </c>
-      <c r="F121" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>149</v>
-      </c>
-      <c r="B122" t="s">
-        <v>263</v>
-      </c>
-      <c r="C122" t="s">
-        <v>263</v>
-      </c>
-      <c r="D122" t="s">
-        <v>263</v>
-      </c>
-      <c r="F122" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>149</v>
-      </c>
-      <c r="B123" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" t="s">
-        <v>264</v>
-      </c>
-      <c r="D123" t="s">
-        <v>264</v>
-      </c>
-      <c r="F123" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>149</v>
-      </c>
-      <c r="B124" t="s">
-        <v>265</v>
-      </c>
-      <c r="C124" t="s">
-        <v>265</v>
-      </c>
-      <c r="D124" t="s">
-        <v>265</v>
-      </c>
-      <c r="F124" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>149</v>
-      </c>
-      <c r="B125" t="s">
-        <v>266</v>
-      </c>
-      <c r="C125" t="s">
-        <v>266</v>
-      </c>
-      <c r="D125" t="s">
-        <v>266</v>
-      </c>
-      <c r="F125" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>149</v>
-      </c>
-      <c r="B126" t="s">
-        <v>267</v>
-      </c>
-      <c r="C126" t="s">
-        <v>267</v>
-      </c>
-      <c r="D126" t="s">
-        <v>267</v>
-      </c>
-      <c r="F126" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>149</v>
-      </c>
-      <c r="B127" t="s">
-        <v>268</v>
-      </c>
-      <c r="C127" t="s">
-        <v>268</v>
-      </c>
-      <c r="D127" t="s">
-        <v>268</v>
-      </c>
-      <c r="F127" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>150</v>
-      </c>
-      <c r="B128">
-        <v>100</v>
-      </c>
-      <c r="C128">
-        <v>100</v>
-      </c>
-      <c r="D128">
-        <v>100</v>
-      </c>
-      <c r="G128" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>150</v>
-      </c>
-      <c r="B129">
-        <v>101</v>
-      </c>
-      <c r="C129">
-        <v>101</v>
-      </c>
-      <c r="D129">
-        <v>101</v>
-      </c>
-      <c r="G129" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>150</v>
-      </c>
-      <c r="B130">
-        <v>102</v>
-      </c>
-      <c r="C130">
-        <v>102</v>
-      </c>
-      <c r="D130">
-        <v>102</v>
-      </c>
-      <c r="G130" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131">
-        <v>103</v>
-      </c>
-      <c r="C131">
-        <v>103</v>
-      </c>
-      <c r="D131">
-        <v>103</v>
-      </c>
-      <c r="G131" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>150</v>
-      </c>
-      <c r="B132">
-        <v>104</v>
-      </c>
-      <c r="C132">
-        <v>104</v>
-      </c>
-      <c r="D132">
-        <v>104</v>
-      </c>
-      <c r="G132" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>150</v>
-      </c>
-      <c r="B133">
-        <v>105</v>
-      </c>
-      <c r="C133">
-        <v>105</v>
-      </c>
-      <c r="D133">
-        <v>105</v>
-      </c>
-      <c r="G133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>150</v>
-      </c>
-      <c r="B134">
-        <v>106</v>
-      </c>
-      <c r="C134">
-        <v>106</v>
-      </c>
-      <c r="D134">
-        <v>106</v>
-      </c>
-      <c r="G134" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>150</v>
-      </c>
-      <c r="B135">
-        <v>107</v>
-      </c>
-      <c r="C135">
-        <v>107</v>
-      </c>
-      <c r="D135">
-        <v>107</v>
-      </c>
-      <c r="G135" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>150</v>
-      </c>
-      <c r="B136">
-        <v>108</v>
-      </c>
-      <c r="C136">
-        <v>108</v>
-      </c>
-      <c r="D136">
-        <v>108</v>
-      </c>
-      <c r="G136" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>150</v>
-      </c>
-      <c r="B137">
-        <v>109</v>
-      </c>
-      <c r="C137">
-        <v>109</v>
-      </c>
-      <c r="D137">
-        <v>109</v>
-      </c>
-      <c r="G137" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>150</v>
-      </c>
-      <c r="B138">
-        <v>200</v>
-      </c>
-      <c r="C138">
-        <v>200</v>
-      </c>
-      <c r="D138">
-        <v>200</v>
-      </c>
-      <c r="G138" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>150</v>
-      </c>
-      <c r="B139">
-        <v>201</v>
-      </c>
-      <c r="C139">
-        <v>201</v>
-      </c>
-      <c r="D139">
-        <v>201</v>
-      </c>
-      <c r="G139" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>150</v>
-      </c>
-      <c r="B140">
-        <v>202</v>
-      </c>
-      <c r="C140">
-        <v>202</v>
-      </c>
-      <c r="D140">
-        <v>202</v>
-      </c>
-      <c r="G140" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>150</v>
-      </c>
-      <c r="B141">
-        <v>203</v>
-      </c>
-      <c r="C141">
-        <v>203</v>
-      </c>
-      <c r="D141">
-        <v>203</v>
-      </c>
-      <c r="G141" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>150</v>
-      </c>
-      <c r="B142">
-        <v>204</v>
-      </c>
-      <c r="C142">
-        <v>204</v>
-      </c>
-      <c r="D142">
-        <v>204</v>
-      </c>
-      <c r="G142" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>150</v>
-      </c>
-      <c r="B143">
-        <v>205</v>
-      </c>
-      <c r="C143">
-        <v>205</v>
-      </c>
-      <c r="D143">
-        <v>205</v>
-      </c>
-      <c r="G143" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>150</v>
-      </c>
-      <c r="B144">
-        <v>206</v>
-      </c>
-      <c r="C144">
-        <v>206</v>
-      </c>
-      <c r="D144">
-        <v>206</v>
-      </c>
-      <c r="G144" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145">
-        <v>207</v>
-      </c>
-      <c r="C145">
-        <v>207</v>
-      </c>
-      <c r="D145">
-        <v>207</v>
-      </c>
-      <c r="G145" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>150</v>
-      </c>
-      <c r="B146">
-        <v>208</v>
-      </c>
-      <c r="C146">
-        <v>208</v>
-      </c>
-      <c r="D146">
-        <v>208</v>
-      </c>
-      <c r="G146" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147">
-        <v>209</v>
-      </c>
-      <c r="C147">
-        <v>209</v>
-      </c>
-      <c r="D147">
-        <v>209</v>
-      </c>
-      <c r="G147" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148">
-        <v>210</v>
-      </c>
-      <c r="C148">
-        <v>210</v>
-      </c>
-      <c r="D148">
-        <v>210</v>
-      </c>
-      <c r="G148" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149">
-        <v>211</v>
-      </c>
-      <c r="C149">
-        <v>211</v>
-      </c>
-      <c r="D149">
-        <v>211</v>
-      </c>
-      <c r="G149" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150">
-        <v>212</v>
-      </c>
-      <c r="C150">
-        <v>212</v>
-      </c>
-      <c r="D150">
-        <v>212</v>
-      </c>
-      <c r="G150" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <v>213</v>
-      </c>
-      <c r="C151">
-        <v>213</v>
-      </c>
-      <c r="D151">
-        <v>213</v>
-      </c>
-      <c r="G151" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>214</v>
-      </c>
-      <c r="C152">
-        <v>214</v>
-      </c>
-      <c r="D152">
-        <v>214</v>
-      </c>
-      <c r="G152" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153">
-        <v>215</v>
-      </c>
-      <c r="C153">
-        <v>215</v>
-      </c>
-      <c r="D153">
-        <v>215</v>
-      </c>
-      <c r="G153" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>150</v>
-      </c>
-      <c r="B154">
-        <v>216</v>
-      </c>
-      <c r="C154">
-        <v>216</v>
-      </c>
-      <c r="D154">
-        <v>216</v>
-      </c>
-      <c r="G154" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>150</v>
-      </c>
-      <c r="B155">
-        <v>217</v>
-      </c>
-      <c r="C155">
-        <v>217</v>
-      </c>
-      <c r="D155">
-        <v>217</v>
-      </c>
-      <c r="G155" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>150</v>
-      </c>
-      <c r="B156">
-        <v>218</v>
-      </c>
-      <c r="C156">
-        <v>218</v>
-      </c>
-      <c r="D156">
-        <v>218</v>
-      </c>
-      <c r="G156" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>150</v>
-      </c>
-      <c r="B157">
-        <v>219</v>
-      </c>
-      <c r="C157">
-        <v>219</v>
-      </c>
-      <c r="D157">
-        <v>219</v>
-      </c>
-      <c r="G157" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>150</v>
-      </c>
-      <c r="B158">
-        <v>220</v>
-      </c>
-      <c r="C158">
-        <v>220</v>
-      </c>
-      <c r="D158">
-        <v>220</v>
-      </c>
-      <c r="G158" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>150</v>
-      </c>
-      <c r="B159">
-        <v>221</v>
-      </c>
-      <c r="C159">
-        <v>221</v>
-      </c>
-      <c r="D159">
-        <v>221</v>
-      </c>
-      <c r="G159" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>150</v>
-      </c>
-      <c r="B160">
-        <v>222</v>
-      </c>
-      <c r="C160">
-        <v>222</v>
-      </c>
-      <c r="D160">
-        <v>222</v>
-      </c>
-      <c r="G160" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>150</v>
-      </c>
-      <c r="B161">
-        <v>223</v>
-      </c>
-      <c r="C161">
-        <v>223</v>
-      </c>
-      <c r="D161">
-        <v>223</v>
-      </c>
-      <c r="G161" t="s">
-        <v>217</v>
+        <v>149</v>
+      </c>
+      <c r="B161" t="s">
+        <v>259</v>
+      </c>
+      <c r="C161" t="s">
+        <v>259</v>
+      </c>
+      <c r="D161" t="s">
+        <v>259</v>
+      </c>
+      <c r="F161" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>150</v>
-      </c>
-      <c r="B162">
-        <v>224</v>
-      </c>
-      <c r="C162">
-        <v>224</v>
-      </c>
-      <c r="D162">
-        <v>224</v>
-      </c>
-      <c r="G162" t="s">
-        <v>218</v>
+        <v>149</v>
+      </c>
+      <c r="B162" t="s">
+        <v>260</v>
+      </c>
+      <c r="C162" t="s">
+        <v>260</v>
+      </c>
+      <c r="D162" t="s">
+        <v>260</v>
+      </c>
+      <c r="F162" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>150</v>
-      </c>
-      <c r="B163">
-        <v>225</v>
-      </c>
-      <c r="C163">
-        <v>225</v>
-      </c>
-      <c r="D163">
-        <v>225</v>
-      </c>
-      <c r="G163" t="s">
-        <v>219</v>
+        <v>149</v>
+      </c>
+      <c r="B163" t="s">
+        <v>261</v>
+      </c>
+      <c r="C163" t="s">
+        <v>261</v>
+      </c>
+      <c r="D163" t="s">
+        <v>261</v>
+      </c>
+      <c r="F163" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>150</v>
-      </c>
-      <c r="B164">
-        <v>226</v>
-      </c>
-      <c r="C164">
-        <v>226</v>
-      </c>
-      <c r="D164">
-        <v>226</v>
-      </c>
-      <c r="G164" t="s">
-        <v>220</v>
+        <v>149</v>
+      </c>
+      <c r="B164" t="s">
+        <v>262</v>
+      </c>
+      <c r="C164" t="s">
+        <v>262</v>
+      </c>
+      <c r="D164" t="s">
+        <v>262</v>
+      </c>
+      <c r="F164" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>150</v>
-      </c>
-      <c r="B165">
-        <v>227</v>
-      </c>
-      <c r="C165">
-        <v>227</v>
-      </c>
-      <c r="D165">
-        <v>227</v>
-      </c>
-      <c r="G165" t="s">
-        <v>221</v>
+        <v>149</v>
+      </c>
+      <c r="B165" t="s">
+        <v>263</v>
+      </c>
+      <c r="C165" t="s">
+        <v>263</v>
+      </c>
+      <c r="D165" t="s">
+        <v>263</v>
+      </c>
+      <c r="F165" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>150</v>
-      </c>
-      <c r="B166">
-        <v>228</v>
-      </c>
-      <c r="C166">
-        <v>228</v>
-      </c>
-      <c r="D166">
-        <v>228</v>
-      </c>
-      <c r="G166" t="s">
-        <v>222</v>
+        <v>149</v>
+      </c>
+      <c r="B166" t="s">
+        <v>327</v>
+      </c>
+      <c r="C166" t="s">
+        <v>327</v>
+      </c>
+      <c r="D166" t="s">
+        <v>327</v>
+      </c>
+      <c r="F166" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>150</v>
-      </c>
-      <c r="B167">
-        <v>229</v>
-      </c>
-      <c r="C167">
-        <v>229</v>
-      </c>
-      <c r="D167">
-        <v>229</v>
-      </c>
-      <c r="G167" t="s">
-        <v>223</v>
+        <v>149</v>
+      </c>
+      <c r="B167" t="s">
+        <v>264</v>
+      </c>
+      <c r="C167" t="s">
+        <v>264</v>
+      </c>
+      <c r="D167" t="s">
+        <v>264</v>
+      </c>
+      <c r="F167" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>150</v>
-      </c>
-      <c r="B168">
-        <v>230</v>
-      </c>
-      <c r="C168">
-        <v>230</v>
-      </c>
-      <c r="D168">
-        <v>230</v>
-      </c>
-      <c r="G168" t="s">
-        <v>224</v>
+        <v>149</v>
+      </c>
+      <c r="B168" t="s">
+        <v>265</v>
+      </c>
+      <c r="C168" t="s">
+        <v>265</v>
+      </c>
+      <c r="D168" t="s">
+        <v>265</v>
+      </c>
+      <c r="F168" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>150</v>
-      </c>
-      <c r="B169">
-        <v>231</v>
-      </c>
-      <c r="C169">
-        <v>231</v>
-      </c>
-      <c r="D169">
-        <v>231</v>
-      </c>
-      <c r="G169" t="s">
-        <v>225</v>
+        <v>149</v>
+      </c>
+      <c r="B169" t="s">
+        <v>266</v>
+      </c>
+      <c r="C169" t="s">
+        <v>266</v>
+      </c>
+      <c r="D169" t="s">
+        <v>266</v>
+      </c>
+      <c r="F169" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5126,16 +5249,16 @@
         <v>150</v>
       </c>
       <c r="B170">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="C170">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="D170">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="G170" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5143,16 +5266,16 @@
         <v>150</v>
       </c>
       <c r="B171">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="C171">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D171">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="G171" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5160,16 +5283,16 @@
         <v>150</v>
       </c>
       <c r="B172">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="C172">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="D172">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="G172" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5177,16 +5300,16 @@
         <v>150</v>
       </c>
       <c r="B173">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="C173">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="D173">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="G173" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5194,16 +5317,16 @@
         <v>150</v>
       </c>
       <c r="B174">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="C174">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="D174">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="G174" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5211,16 +5334,16 @@
         <v>150</v>
       </c>
       <c r="B175">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="C175">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="D175">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="G175" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5228,16 +5351,16 @@
         <v>150</v>
       </c>
       <c r="B176">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="C176">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="D176">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="G176" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5245,16 +5368,16 @@
         <v>150</v>
       </c>
       <c r="B177">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="C177">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="D177">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="G177" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5262,16 +5385,16 @@
         <v>150</v>
       </c>
       <c r="B178">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="C178">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="D178">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="G178" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5279,16 +5402,16 @@
         <v>150</v>
       </c>
       <c r="B179">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="C179">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="D179">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="G179" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5296,16 +5419,16 @@
         <v>150</v>
       </c>
       <c r="B180">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="C180">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="D180">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="G180" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5313,16 +5436,16 @@
         <v>150</v>
       </c>
       <c r="B181">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="C181">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="D181">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="G181" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5330,16 +5453,16 @@
         <v>150</v>
       </c>
       <c r="B182">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="C182">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="D182">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="G182" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5347,16 +5470,16 @@
         <v>150</v>
       </c>
       <c r="B183">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="C183">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="D183">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="G183" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5364,16 +5487,16 @@
         <v>150</v>
       </c>
       <c r="B184">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="C184">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="D184">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="G184" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5381,16 +5504,16 @@
         <v>150</v>
       </c>
       <c r="B185">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="C185">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="D185">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="G185" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5398,16 +5521,16 @@
         <v>150</v>
       </c>
       <c r="B186">
-        <v>303</v>
+        <v>116</v>
       </c>
       <c r="C186">
-        <v>303</v>
+        <v>116</v>
       </c>
       <c r="D186">
-        <v>303</v>
+        <v>116</v>
       </c>
       <c r="G186" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5415,16 +5538,16 @@
         <v>150</v>
       </c>
       <c r="B187">
-        <v>304</v>
+        <v>117</v>
       </c>
       <c r="C187">
-        <v>304</v>
+        <v>117</v>
       </c>
       <c r="D187">
-        <v>304</v>
+        <v>117</v>
       </c>
       <c r="G187" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5432,16 +5555,16 @@
         <v>150</v>
       </c>
       <c r="B188">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="C188">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="D188">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="G188" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5449,16 +5572,16 @@
         <v>150</v>
       </c>
       <c r="B189">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="C189">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="D189">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="G189" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5466,16 +5589,16 @@
         <v>150</v>
       </c>
       <c r="B190">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="C190">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="D190">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="G190" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5483,16 +5606,16 @@
         <v>150</v>
       </c>
       <c r="B191">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="C191">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="D191">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="G191" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5500,16 +5623,16 @@
         <v>150</v>
       </c>
       <c r="B192">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="C192">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="D192">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="G192" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5517,16 +5640,16 @@
         <v>150</v>
       </c>
       <c r="B193">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="C193">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="D193">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="G193" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5534,16 +5657,16 @@
         <v>150</v>
       </c>
       <c r="B194">
-        <v>311</v>
+        <v>124</v>
       </c>
       <c r="C194">
-        <v>311</v>
+        <v>124</v>
       </c>
       <c r="D194">
-        <v>311</v>
+        <v>124</v>
       </c>
       <c r="G194" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5551,16 +5674,16 @@
         <v>150</v>
       </c>
       <c r="B195">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="C195">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D195">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="G195" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5568,16 +5691,16 @@
         <v>150</v>
       </c>
       <c r="B196">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="C196">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="D196">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="G196" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5585,16 +5708,16 @@
         <v>150</v>
       </c>
       <c r="B197">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="C197">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="D197">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="G197" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5602,16 +5725,16 @@
         <v>150</v>
       </c>
       <c r="B198">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="C198">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="D198">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="G198" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5619,16 +5742,16 @@
         <v>150</v>
       </c>
       <c r="B199">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="C199">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="D199">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="G199" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5636,16 +5759,16 @@
         <v>150</v>
       </c>
       <c r="B200">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="C200">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="D200">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="G200" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5653,16 +5776,16 @@
         <v>150</v>
       </c>
       <c r="B201">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="C201">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="D201">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="G201" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5670,16 +5793,16 @@
         <v>150</v>
       </c>
       <c r="B202">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="C202">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="D202">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="G202" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5687,16 +5810,16 @@
         <v>150</v>
       </c>
       <c r="B203">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="C203">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D203">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="G203" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5704,16 +5827,16 @@
         <v>150</v>
       </c>
       <c r="B204">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="C204">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="D204">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="G204" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5721,16 +5844,16 @@
         <v>150</v>
       </c>
       <c r="B205">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="C205">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="D205">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="G205" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5738,16 +5861,16 @@
         <v>150</v>
       </c>
       <c r="B206">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="C206">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="D206">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="G206" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5755,16 +5878,16 @@
         <v>150</v>
       </c>
       <c r="B207">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="C207">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="D207">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="G207" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5772,16 +5895,16 @@
         <v>150</v>
       </c>
       <c r="B208">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="C208">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="D208">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="G208" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5789,16 +5912,16 @@
         <v>150</v>
       </c>
       <c r="B209">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="C209">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="D209">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="G209" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5806,16 +5929,16 @@
         <v>150</v>
       </c>
       <c r="B210">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="C210">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="D210">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G210" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5823,16 +5946,16 @@
         <v>150</v>
       </c>
       <c r="B211">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="C211">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="D211">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="G211" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5840,21 +5963,1415 @@
         <v>150</v>
       </c>
       <c r="B212">
+        <v>202</v>
+      </c>
+      <c r="C212">
+        <v>202</v>
+      </c>
+      <c r="D212">
+        <v>202</v>
+      </c>
+      <c r="G212" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>150</v>
+      </c>
+      <c r="B213">
+        <v>203</v>
+      </c>
+      <c r="C213">
+        <v>203</v>
+      </c>
+      <c r="D213">
+        <v>203</v>
+      </c>
+      <c r="G213" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>150</v>
+      </c>
+      <c r="B214">
+        <v>204</v>
+      </c>
+      <c r="C214">
+        <v>204</v>
+      </c>
+      <c r="D214">
+        <v>204</v>
+      </c>
+      <c r="G214" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>150</v>
+      </c>
+      <c r="B215">
+        <v>205</v>
+      </c>
+      <c r="C215">
+        <v>205</v>
+      </c>
+      <c r="D215">
+        <v>205</v>
+      </c>
+      <c r="G215" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>150</v>
+      </c>
+      <c r="B216">
+        <v>206</v>
+      </c>
+      <c r="C216">
+        <v>206</v>
+      </c>
+      <c r="D216">
+        <v>206</v>
+      </c>
+      <c r="G216" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>150</v>
+      </c>
+      <c r="B217">
+        <v>207</v>
+      </c>
+      <c r="C217">
+        <v>207</v>
+      </c>
+      <c r="D217">
+        <v>207</v>
+      </c>
+      <c r="G217" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>150</v>
+      </c>
+      <c r="B218">
+        <v>208</v>
+      </c>
+      <c r="C218">
+        <v>208</v>
+      </c>
+      <c r="D218">
+        <v>208</v>
+      </c>
+      <c r="G218" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>150</v>
+      </c>
+      <c r="B219">
+        <v>209</v>
+      </c>
+      <c r="C219">
+        <v>209</v>
+      </c>
+      <c r="D219">
+        <v>209</v>
+      </c>
+      <c r="G219" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>150</v>
+      </c>
+      <c r="B220">
+        <v>210</v>
+      </c>
+      <c r="C220">
+        <v>210</v>
+      </c>
+      <c r="D220">
+        <v>210</v>
+      </c>
+      <c r="G220" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>150</v>
+      </c>
+      <c r="B221">
+        <v>211</v>
+      </c>
+      <c r="C221">
+        <v>211</v>
+      </c>
+      <c r="D221">
+        <v>211</v>
+      </c>
+      <c r="G221" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>150</v>
+      </c>
+      <c r="B222">
+        <v>212</v>
+      </c>
+      <c r="C222">
+        <v>212</v>
+      </c>
+      <c r="D222">
+        <v>212</v>
+      </c>
+      <c r="G222" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>150</v>
+      </c>
+      <c r="B223">
+        <v>213</v>
+      </c>
+      <c r="C223">
+        <v>213</v>
+      </c>
+      <c r="D223">
+        <v>213</v>
+      </c>
+      <c r="G223" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>150</v>
+      </c>
+      <c r="B224">
+        <v>214</v>
+      </c>
+      <c r="C224">
+        <v>214</v>
+      </c>
+      <c r="D224">
+        <v>214</v>
+      </c>
+      <c r="G224" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>150</v>
+      </c>
+      <c r="B225">
+        <v>215</v>
+      </c>
+      <c r="C225">
+        <v>215</v>
+      </c>
+      <c r="D225">
+        <v>215</v>
+      </c>
+      <c r="G225" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>150</v>
+      </c>
+      <c r="B226">
+        <v>216</v>
+      </c>
+      <c r="C226">
+        <v>216</v>
+      </c>
+      <c r="D226">
+        <v>216</v>
+      </c>
+      <c r="G226" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>150</v>
+      </c>
+      <c r="B227">
+        <v>217</v>
+      </c>
+      <c r="C227">
+        <v>217</v>
+      </c>
+      <c r="D227">
+        <v>217</v>
+      </c>
+      <c r="G227" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>150</v>
+      </c>
+      <c r="B228">
+        <v>218</v>
+      </c>
+      <c r="C228">
+        <v>218</v>
+      </c>
+      <c r="D228">
+        <v>218</v>
+      </c>
+      <c r="G228" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>150</v>
+      </c>
+      <c r="B229">
+        <v>219</v>
+      </c>
+      <c r="C229">
+        <v>219</v>
+      </c>
+      <c r="D229">
+        <v>219</v>
+      </c>
+      <c r="G229" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>150</v>
+      </c>
+      <c r="B230">
+        <v>220</v>
+      </c>
+      <c r="C230">
+        <v>220</v>
+      </c>
+      <c r="D230">
+        <v>220</v>
+      </c>
+      <c r="G230" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>150</v>
+      </c>
+      <c r="B231">
+        <v>221</v>
+      </c>
+      <c r="C231">
+        <v>221</v>
+      </c>
+      <c r="D231">
+        <v>221</v>
+      </c>
+      <c r="G231" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>150</v>
+      </c>
+      <c r="B232">
+        <v>222</v>
+      </c>
+      <c r="C232">
+        <v>222</v>
+      </c>
+      <c r="D232">
+        <v>222</v>
+      </c>
+      <c r="G232" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>150</v>
+      </c>
+      <c r="B233">
+        <v>223</v>
+      </c>
+      <c r="C233">
+        <v>223</v>
+      </c>
+      <c r="D233">
+        <v>223</v>
+      </c>
+      <c r="G233" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>150</v>
+      </c>
+      <c r="B234">
+        <v>224</v>
+      </c>
+      <c r="C234">
+        <v>224</v>
+      </c>
+      <c r="D234">
+        <v>224</v>
+      </c>
+      <c r="G234" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>150</v>
+      </c>
+      <c r="B235">
+        <v>225</v>
+      </c>
+      <c r="C235">
+        <v>225</v>
+      </c>
+      <c r="D235">
+        <v>225</v>
+      </c>
+      <c r="G235" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>150</v>
+      </c>
+      <c r="B236">
+        <v>226</v>
+      </c>
+      <c r="C236">
+        <v>226</v>
+      </c>
+      <c r="D236">
+        <v>226</v>
+      </c>
+      <c r="G236" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>150</v>
+      </c>
+      <c r="B237">
+        <v>227</v>
+      </c>
+      <c r="C237">
+        <v>227</v>
+      </c>
+      <c r="D237">
+        <v>227</v>
+      </c>
+      <c r="G237" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>150</v>
+      </c>
+      <c r="B238">
+        <v>228</v>
+      </c>
+      <c r="C238">
+        <v>228</v>
+      </c>
+      <c r="D238">
+        <v>228</v>
+      </c>
+      <c r="G238" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>150</v>
+      </c>
+      <c r="B239">
+        <v>229</v>
+      </c>
+      <c r="C239">
+        <v>229</v>
+      </c>
+      <c r="D239">
+        <v>229</v>
+      </c>
+      <c r="G239" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>150</v>
+      </c>
+      <c r="B240">
+        <v>230</v>
+      </c>
+      <c r="C240">
+        <v>230</v>
+      </c>
+      <c r="D240">
+        <v>230</v>
+      </c>
+      <c r="G240" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>150</v>
+      </c>
+      <c r="B241">
+        <v>231</v>
+      </c>
+      <c r="C241">
+        <v>231</v>
+      </c>
+      <c r="D241">
+        <v>231</v>
+      </c>
+      <c r="G241" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>150</v>
+      </c>
+      <c r="B242">
+        <v>232</v>
+      </c>
+      <c r="C242">
+        <v>232</v>
+      </c>
+      <c r="D242">
+        <v>232</v>
+      </c>
+      <c r="G242" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>150</v>
+      </c>
+      <c r="B243">
+        <v>233</v>
+      </c>
+      <c r="C243">
+        <v>233</v>
+      </c>
+      <c r="D243">
+        <v>233</v>
+      </c>
+      <c r="G243" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>150</v>
+      </c>
+      <c r="B244">
+        <v>234</v>
+      </c>
+      <c r="C244">
+        <v>234</v>
+      </c>
+      <c r="D244">
+        <v>234</v>
+      </c>
+      <c r="G244" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>150</v>
+      </c>
+      <c r="B245">
+        <v>235</v>
+      </c>
+      <c r="C245">
+        <v>235</v>
+      </c>
+      <c r="D245">
+        <v>235</v>
+      </c>
+      <c r="G245" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>150</v>
+      </c>
+      <c r="B246">
+        <v>236</v>
+      </c>
+      <c r="C246">
+        <v>236</v>
+      </c>
+      <c r="D246">
+        <v>236</v>
+      </c>
+      <c r="G246" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>150</v>
+      </c>
+      <c r="B247">
+        <v>237</v>
+      </c>
+      <c r="C247">
+        <v>237</v>
+      </c>
+      <c r="D247">
+        <v>237</v>
+      </c>
+      <c r="G247" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>150</v>
+      </c>
+      <c r="B248">
+        <v>238</v>
+      </c>
+      <c r="C248">
+        <v>238</v>
+      </c>
+      <c r="D248">
+        <v>238</v>
+      </c>
+      <c r="G248" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>150</v>
+      </c>
+      <c r="B249">
+        <v>239</v>
+      </c>
+      <c r="C249">
+        <v>239</v>
+      </c>
+      <c r="D249">
+        <v>239</v>
+      </c>
+      <c r="G249" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>150</v>
+      </c>
+      <c r="B250">
+        <v>240</v>
+      </c>
+      <c r="C250">
+        <v>240</v>
+      </c>
+      <c r="D250">
+        <v>240</v>
+      </c>
+      <c r="G250" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>150</v>
+      </c>
+      <c r="B251">
+        <v>241</v>
+      </c>
+      <c r="C251">
+        <v>241</v>
+      </c>
+      <c r="D251">
+        <v>241</v>
+      </c>
+      <c r="G251" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>150</v>
+      </c>
+      <c r="B252">
+        <v>242</v>
+      </c>
+      <c r="C252">
+        <v>242</v>
+      </c>
+      <c r="D252">
+        <v>242</v>
+      </c>
+      <c r="G252" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>150</v>
+      </c>
+      <c r="B253">
+        <v>243</v>
+      </c>
+      <c r="C253">
+        <v>243</v>
+      </c>
+      <c r="D253">
+        <v>243</v>
+      </c>
+      <c r="G253" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>150</v>
+      </c>
+      <c r="B254">
+        <v>244</v>
+      </c>
+      <c r="C254">
+        <v>244</v>
+      </c>
+      <c r="D254">
+        <v>244</v>
+      </c>
+      <c r="G254" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>150</v>
+      </c>
+      <c r="B255">
+        <v>300</v>
+      </c>
+      <c r="C255">
+        <v>300</v>
+      </c>
+      <c r="D255">
+        <v>300</v>
+      </c>
+      <c r="G255" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>150</v>
+      </c>
+      <c r="B256">
+        <v>301</v>
+      </c>
+      <c r="C256">
+        <v>301</v>
+      </c>
+      <c r="D256">
+        <v>301</v>
+      </c>
+      <c r="G256" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>150</v>
+      </c>
+      <c r="B257">
+        <v>302</v>
+      </c>
+      <c r="C257">
+        <v>302</v>
+      </c>
+      <c r="D257">
+        <v>302</v>
+      </c>
+      <c r="G257" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>150</v>
+      </c>
+      <c r="B258">
+        <v>303</v>
+      </c>
+      <c r="C258">
+        <v>303</v>
+      </c>
+      <c r="D258">
+        <v>303</v>
+      </c>
+      <c r="G258" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>150</v>
+      </c>
+      <c r="B259">
+        <v>304</v>
+      </c>
+      <c r="C259">
+        <v>304</v>
+      </c>
+      <c r="D259">
+        <v>304</v>
+      </c>
+      <c r="G259" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>150</v>
+      </c>
+      <c r="B260">
+        <v>305</v>
+      </c>
+      <c r="C260">
+        <v>305</v>
+      </c>
+      <c r="D260">
+        <v>305</v>
+      </c>
+      <c r="G260" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>150</v>
+      </c>
+      <c r="B261">
+        <v>306</v>
+      </c>
+      <c r="C261">
+        <v>306</v>
+      </c>
+      <c r="D261">
+        <v>306</v>
+      </c>
+      <c r="G261" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>150</v>
+      </c>
+      <c r="B262">
+        <v>307</v>
+      </c>
+      <c r="C262">
+        <v>307</v>
+      </c>
+      <c r="D262">
+        <v>307</v>
+      </c>
+      <c r="G262" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>150</v>
+      </c>
+      <c r="B263">
+        <v>308</v>
+      </c>
+      <c r="C263">
+        <v>308</v>
+      </c>
+      <c r="D263">
+        <v>308</v>
+      </c>
+      <c r="G263" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>150</v>
+      </c>
+      <c r="B264">
+        <v>309</v>
+      </c>
+      <c r="C264">
+        <v>309</v>
+      </c>
+      <c r="D264">
+        <v>309</v>
+      </c>
+      <c r="G264" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>150</v>
+      </c>
+      <c r="B265">
+        <v>310</v>
+      </c>
+      <c r="C265">
+        <v>310</v>
+      </c>
+      <c r="D265">
+        <v>310</v>
+      </c>
+      <c r="G265" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>150</v>
+      </c>
+      <c r="B266">
+        <v>311</v>
+      </c>
+      <c r="C266">
+        <v>311</v>
+      </c>
+      <c r="D266">
+        <v>311</v>
+      </c>
+      <c r="G266" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>150</v>
+      </c>
+      <c r="B267">
+        <v>312</v>
+      </c>
+      <c r="C267">
+        <v>312</v>
+      </c>
+      <c r="D267">
+        <v>312</v>
+      </c>
+      <c r="G267" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>150</v>
+      </c>
+      <c r="B268">
+        <v>313</v>
+      </c>
+      <c r="C268">
+        <v>313</v>
+      </c>
+      <c r="D268">
+        <v>313</v>
+      </c>
+      <c r="G268" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>150</v>
+      </c>
+      <c r="B269">
+        <v>314</v>
+      </c>
+      <c r="C269">
+        <v>314</v>
+      </c>
+      <c r="D269">
+        <v>314</v>
+      </c>
+      <c r="G269" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>150</v>
+      </c>
+      <c r="B270">
+        <v>315</v>
+      </c>
+      <c r="C270">
+        <v>315</v>
+      </c>
+      <c r="D270">
+        <v>315</v>
+      </c>
+      <c r="G270" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>150</v>
+      </c>
+      <c r="B271">
+        <v>316</v>
+      </c>
+      <c r="C271">
+        <v>316</v>
+      </c>
+      <c r="D271">
+        <v>316</v>
+      </c>
+      <c r="G271" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>150</v>
+      </c>
+      <c r="B272">
+        <v>317</v>
+      </c>
+      <c r="C272">
+        <v>317</v>
+      </c>
+      <c r="D272">
+        <v>317</v>
+      </c>
+      <c r="G272" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>150</v>
+      </c>
+      <c r="B273">
+        <v>318</v>
+      </c>
+      <c r="C273">
+        <v>318</v>
+      </c>
+      <c r="D273">
+        <v>318</v>
+      </c>
+      <c r="G273" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>150</v>
+      </c>
+      <c r="B274">
+        <v>319</v>
+      </c>
+      <c r="C274">
+        <v>319</v>
+      </c>
+      <c r="D274">
+        <v>319</v>
+      </c>
+      <c r="G274" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>150</v>
+      </c>
+      <c r="B275">
+        <v>320</v>
+      </c>
+      <c r="C275">
+        <v>320</v>
+      </c>
+      <c r="D275">
+        <v>320</v>
+      </c>
+      <c r="G275" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>150</v>
+      </c>
+      <c r="B276">
+        <v>321</v>
+      </c>
+      <c r="C276">
+        <v>321</v>
+      </c>
+      <c r="D276">
+        <v>321</v>
+      </c>
+      <c r="G276" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>150</v>
+      </c>
+      <c r="B277">
+        <v>322</v>
+      </c>
+      <c r="C277">
+        <v>322</v>
+      </c>
+      <c r="D277">
+        <v>322</v>
+      </c>
+      <c r="G277" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>150</v>
+      </c>
+      <c r="B278">
+        <v>323</v>
+      </c>
+      <c r="C278">
+        <v>323</v>
+      </c>
+      <c r="D278">
+        <v>323</v>
+      </c>
+      <c r="G278" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>150</v>
+      </c>
+      <c r="B279">
+        <v>324</v>
+      </c>
+      <c r="C279">
+        <v>324</v>
+      </c>
+      <c r="D279">
+        <v>324</v>
+      </c>
+      <c r="G279" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>150</v>
+      </c>
+      <c r="B280">
+        <v>325</v>
+      </c>
+      <c r="C280">
+        <v>325</v>
+      </c>
+      <c r="D280">
+        <v>325</v>
+      </c>
+      <c r="G280" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>150</v>
+      </c>
+      <c r="B281">
+        <v>326</v>
+      </c>
+      <c r="C281">
+        <v>326</v>
+      </c>
+      <c r="D281">
+        <v>326</v>
+      </c>
+      <c r="G281" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>150</v>
+      </c>
+      <c r="B282">
+        <v>327</v>
+      </c>
+      <c r="C282">
+        <v>327</v>
+      </c>
+      <c r="D282">
+        <v>327</v>
+      </c>
+      <c r="G282" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>150</v>
+      </c>
+      <c r="B283">
+        <v>328</v>
+      </c>
+      <c r="C283">
+        <v>328</v>
+      </c>
+      <c r="D283">
+        <v>328</v>
+      </c>
+      <c r="G283" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>150</v>
+      </c>
+      <c r="B284">
         <v>329</v>
       </c>
-      <c r="C212">
+      <c r="C284">
         <v>329</v>
       </c>
-      <c r="D212">
+      <c r="D284">
         <v>329</v>
       </c>
-      <c r="G212" t="s">
-        <v>268</v>
+      <c r="G284" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>150</v>
+      </c>
+      <c r="B285">
+        <v>330</v>
+      </c>
+      <c r="C285">
+        <v>330</v>
+      </c>
+      <c r="D285">
+        <v>330</v>
+      </c>
+      <c r="G285" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>150</v>
+      </c>
+      <c r="B286">
+        <v>331</v>
+      </c>
+      <c r="C286">
+        <v>331</v>
+      </c>
+      <c r="D286">
+        <v>331</v>
+      </c>
+      <c r="G286" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>150</v>
+      </c>
+      <c r="B287">
+        <v>332</v>
+      </c>
+      <c r="C287">
+        <v>332</v>
+      </c>
+      <c r="D287">
+        <v>332</v>
+      </c>
+      <c r="G287" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>150</v>
+      </c>
+      <c r="B288">
+        <v>333</v>
+      </c>
+      <c r="C288">
+        <v>333</v>
+      </c>
+      <c r="D288">
+        <v>333</v>
+      </c>
+      <c r="G288" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>150</v>
+      </c>
+      <c r="B289">
+        <v>334</v>
+      </c>
+      <c r="C289">
+        <v>334</v>
+      </c>
+      <c r="D289">
+        <v>334</v>
+      </c>
+      <c r="G289" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>150</v>
+      </c>
+      <c r="B290">
+        <v>335</v>
+      </c>
+      <c r="C290">
+        <v>335</v>
+      </c>
+      <c r="D290">
+        <v>335</v>
+      </c>
+      <c r="G290" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>150</v>
+      </c>
+      <c r="B291">
+        <v>336</v>
+      </c>
+      <c r="C291">
+        <v>336</v>
+      </c>
+      <c r="D291">
+        <v>336</v>
+      </c>
+      <c r="G291" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>150</v>
+      </c>
+      <c r="B292">
+        <v>337</v>
+      </c>
+      <c r="C292">
+        <v>337</v>
+      </c>
+      <c r="D292">
+        <v>337</v>
+      </c>
+      <c r="G292" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>150</v>
+      </c>
+      <c r="B293">
+        <v>338</v>
+      </c>
+      <c r="C293">
+        <v>338</v>
+      </c>
+      <c r="D293">
+        <v>338</v>
+      </c>
+      <c r="G293" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>150</v>
+      </c>
+      <c r="B294">
+        <v>339</v>
+      </c>
+      <c r="C294">
+        <v>339</v>
+      </c>
+      <c r="D294">
+        <v>339</v>
+      </c>
+      <c r="G294" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C54">
-    <sortCondition ref="B9:B54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C15">
+    <sortCondition ref="B9:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5866,7 +7383,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5892,10 +7409,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>286</v>
       </c>
       <c r="C2">
         <v>20210114</v>
